--- a/Configurations/Test/GameConfiguration0.xlsx
+++ b/Configurations/Test/GameConfiguration0.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyongshan/Documents/GitHub/2023GGJ/Configurations/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F5BCA0-0506-8645-9948-F53960C7D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67C8AB-F525-9640-AF4A-FD9E8C1D1F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53320" yWindow="5340" windowWidth="34220" windowHeight="19600" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8320" yWindow="4400" windowWidth="34220" windowHeight="19600" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sub_resource_config" sheetId="2" r:id="rId1"/>
+    <sheet name="plants_config" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -41,61 +41,13 @@
     <t>key</t>
   </si>
   <si>
-    <t>food</t>
+    <t>value_list</t>
   </si>
   <si>
-    <t>score</t>
+    <t>test_plant</t>
   </si>
   <si>
-    <t>parent_key</t>
-  </si>
-  <si>
-    <t>main_sub_res</t>
-  </si>
-  <si>
-    <t>labor</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>harmor</t>
-  </si>
-  <si>
-    <t>decoration</t>
-  </si>
-  <si>
-    <t>wheat</t>
-  </si>
-  <si>
-    <t>black_ink</t>
-  </si>
-  <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>saltpeter</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>aura</t>
-  </si>
-  <si>
-    <t>alcohol</t>
-  </si>
-  <si>
-    <t>meat</t>
+    <t>[10, 100, 1000, 9999, 0]</t>
   </si>
 </sst>
 </file>
@@ -456,12 +408,15 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -471,168 +426,66 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configurations/Test/GameConfiguration0.xlsx
+++ b/Configurations/Test/GameConfiguration0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyongshan/Documents/GitHub/2023GGJ/Configurations/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23701\Documents\GitHub\2023GGJ\Configurations\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67C8AB-F525-9640-AF4A-FD9E8C1D1F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D583007-B0E7-47EC-89A4-C05C6853626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="4400" windowWidth="34220" windowHeight="19600" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="3795" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plants_config" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -44,21 +44,68 @@
     <t>value_list</t>
   </si>
   <si>
-    <t>test_plant</t>
-  </si>
-  <si>
     <t>[10, 100, 1000, 9999, 0]</t>
+  </si>
+  <si>
+    <t>plant_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant_2</t>
+  </si>
+  <si>
+    <t>plant_3</t>
+  </si>
+  <si>
+    <t>plant_4</t>
+  </si>
+  <si>
+    <t>plant_5</t>
+  </si>
+  <si>
+    <t>plant_6</t>
+  </si>
+  <si>
+    <t>plant_7</t>
+  </si>
+  <si>
+    <t>plant_8</t>
+  </si>
+  <si>
+    <t>plant_9</t>
+  </si>
+  <si>
+    <t>plant_10</t>
+  </si>
+  <si>
+    <t>plant_11</t>
+  </si>
+  <si>
+    <t>plant_12</t>
+  </si>
+  <si>
+    <t>plant_13</t>
+  </si>
+  <si>
+    <t>plant_14</t>
+  </si>
+  <si>
+    <t>plant_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -66,8 +113,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -121,9 +182,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,21 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="75.875" customWidth="1"/>
+    <col min="4" max="4" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,63 +495,193 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Configurations/Test/GameConfiguration0.xlsx
+++ b/Configurations/Test/GameConfiguration0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23701\Documents\GitHub\2023GGJ\Configurations\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D583007-B0E7-47EC-89A4-C05C6853626E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E50BA9-9B09-4818-9455-C95A3C966BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="3795" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10125" yWindow="15150" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plants_config" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,26 @@
   </si>
   <si>
     <t>plant_15</t>
+  </si>
+  <si>
+    <t>[500, 1, 1000, 200, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 11, 1, 999, 9999]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 100, 1000, 9999, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 100, 1, 2, 0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 100, 1000, 9999, 100000000]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -120,6 +140,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -471,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,8 +523,8 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -514,8 +535,8 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -526,8 +547,8 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -538,8 +559,8 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -550,8 +571,8 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/Configurations/Test/GameConfiguration0.xlsx
+++ b/Configurations/Test/GameConfiguration0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23701\Documents\GitHub\2023GGJ\Configurations\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E50BA9-9B09-4818-9455-C95A3C966BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A4353-21E0-4502-9C2E-2154FC99FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="15150" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="3330" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plants_config" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -97,23 +97,15 @@
     <t>plant_15</t>
   </si>
   <si>
-    <t>[500, 1, 1000, 200, 0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[10, 11, 1, 999, 9999]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[3, 100, 1000, 9999, 0]</t>
+    <t>[3, 100, 1000, 9999, 100000000]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[10, 100, 1, 2, 0]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10, 100, 1000, 9999, 100000000]</t>
+    <t>[500, 1, 1000, 200, 1]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -536,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -548,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -559,8 +551,8 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -571,8 +563,8 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/Configurations/Test/GameConfiguration0.xlsx
+++ b/Configurations/Test/GameConfiguration0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23701\Documents\GitHub\2023GGJ\Configurations\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A4353-21E0-4502-9C2E-2154FC99FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{787A4353-21E0-4502-9C2E-2154FC99FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{663BF7E7-F357-469B-8B35-64B4100E2745}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="3330" windowWidth="27195" windowHeight="15435" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plants_config" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -42,78 +42,119 @@
   </si>
   <si>
     <t>value_list</t>
-  </si>
-  <si>
-    <t>[10, 100, 1000, 9999, 0]</t>
   </si>
   <si>
     <t>plant_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>[500, 1, 1000, 200, 1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>plant_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>[10, 10, 1, 50, 0]</t>
+  </si>
+  <si>
     <t>plant_2</t>
-  </si>
-  <si>
-    <t>plant_3</t>
-  </si>
-  <si>
-    <t>plant_4</t>
-  </si>
-  <si>
-    <t>plant_5</t>
-  </si>
-  <si>
-    <t>plant_6</t>
-  </si>
-  <si>
-    <t>plant_7</t>
-  </si>
-  <si>
-    <t>plant_8</t>
-  </si>
-  <si>
-    <t>plant_9</t>
-  </si>
-  <si>
-    <t>plant_10</t>
-  </si>
-  <si>
-    <t>plant_11</t>
-  </si>
-  <si>
-    <t>plant_12</t>
-  </si>
-  <si>
-    <t>plant_13</t>
-  </si>
-  <si>
-    <t>plant_14</t>
-  </si>
-  <si>
-    <t>plant_15</t>
-  </si>
-  <si>
-    <t>[10, 11, 1, 999, 9999]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[3, 100, 1000, 9999, 100000000]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[500, 1, 1000, 200, 1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>plant_3</t>
+  </si>
+  <si>
+    <t>[10, 9999, 0]</t>
+  </si>
+  <si>
+    <t>plant_4</t>
+  </si>
+  <si>
+    <t>[10, 1000, 2000, 1000, 500]</t>
+  </si>
+  <si>
+    <t>plant_5</t>
+  </si>
+  <si>
+    <t>[100, 100, 1000, 1000, 0]</t>
+  </si>
+  <si>
+    <t>plant_6</t>
+  </si>
+  <si>
+    <t>[3000, 0]</t>
+  </si>
+  <si>
+    <t>plant_7</t>
+  </si>
+  <si>
+    <t>[50, 50, 8000, 0, 1000]</t>
+  </si>
+  <si>
+    <t>plant_8</t>
+  </si>
+  <si>
+    <t>[10, 10000, 0]</t>
+  </si>
+  <si>
+    <t>plant_9</t>
+  </si>
+  <si>
+    <t>[1000, 20]</t>
+  </si>
+  <si>
+    <t>plant_10</t>
+  </si>
+  <si>
+    <t>[10, 600, 7000, 400, 0]</t>
+  </si>
+  <si>
+    <t>plant_11</t>
+  </si>
+  <si>
+    <t>[200, 100, 0]</t>
+  </si>
+  <si>
+    <t>plant_12</t>
+  </si>
+  <si>
+    <t>[3000, 4000, 5000, 6000, 1]</t>
+  </si>
+  <si>
+    <t>plant_13</t>
+  </si>
+  <si>
+    <t>[200, 100, 1000, 1500, 2000]</t>
+  </si>
+  <si>
+    <t>plant_14</t>
+  </si>
+  <si>
+    <t>[1000, 50, 0, 0, 800]</t>
+  </si>
+  <si>
+    <t>plant_15</t>
+  </si>
+  <si>
+    <t>[10, 10, 100, 0, 1000, 1000, 999999]</t>
+  </si>
+  <si>
+    <t>plant_16</t>
+  </si>
+  <si>
+    <t>[3, 100, 1000, 9999, 0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -482,13 +523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
@@ -496,7 +537,7 @@
     <col min="4" max="4" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,19 +549,19 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -528,169 +569,180 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
